--- a/results.xlsx
+++ b/results.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698B8B1C-0839-4481-AB1E-182E212D99EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9E9143-56F4-4F21-AC5B-960BB2903D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2310" windowWidth="22155" windowHeight="12525" xr2:uid="{32722BA9-706D-48DB-BC8C-BCA8B7A66EAB}"/>
+    <workbookView xWindow="2895" yWindow="3780" windowWidth="13125" windowHeight="15435" xr2:uid="{32722BA9-706D-48DB-BC8C-BCA8B7A66EAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Apple M1</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Data bytes</t>
+  </si>
+  <si>
+    <t>SHA-256</t>
+  </si>
+  <si>
+    <t>SHA-512</t>
   </si>
 </sst>
 </file>
@@ -86,8 +92,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="\+_0.0%;\-_0.0%"/>
-    <numFmt numFmtId="171" formatCode="0\ &quot;ms&quot;"/>
+    <numFmt numFmtId="164" formatCode="\+_0.0%;\-_0.0%"/>
+    <numFmt numFmtId="165" formatCode="0\ &quot;ms&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -215,7 +221,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -224,13 +230,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -239,32 +241,29 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -581,7 +580,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75746EE9-F315-452F-AF2C-57AECA4AA02F}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,7 +588,7 @@
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="23" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
     <col min="5" max="6" width="11.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="4" customWidth="1"/>
@@ -600,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -615,508 +614,634 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>256</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>10000000</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <v>6532</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>5938</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <f>(E2-F2)/E2</f>
         <v>9.0936925903245563E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>256</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="2">
         <v>10000000</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="26">
         <v>322</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="26">
         <v>201</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <f>(E3-F3)/E3</f>
         <v>0.37577639751552794</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17">
+      <c r="C4" s="24"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
         <f>E2/E3</f>
         <v>20.285714285714285</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <f>F2/F3</f>
         <v>29.542288557213929</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>256</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>10000000</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="25">
         <v>7290</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="25">
         <v>8100</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f t="shared" ref="G5:G6" si="0">(E5-F5)/E5</f>
         <v>-0.1111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>256</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="2">
         <v>10000000</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>1177</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="26">
         <v>1741</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <f t="shared" si="0"/>
         <v>-0.4791843670348343</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17">
+      <c r="C7" s="24"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15">
         <f>E5/E6</f>
         <v>6.1937128292268477</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <f>F5/F6</f>
         <v>4.6524985640436531</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24">
-        <v>16</v>
-      </c>
-      <c r="D8" s="21">
-        <v>100000000</v>
-      </c>
-      <c r="E8" s="28">
-        <v>3780</v>
-      </c>
-      <c r="F8" s="28">
-        <v>5662</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="C8" s="22">
+        <v>256</v>
+      </c>
+      <c r="D8" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="E8" s="25">
+        <v>13004</v>
+      </c>
+      <c r="F8" s="25">
+        <v>13802</v>
+      </c>
+      <c r="G8" s="20">
         <f t="shared" ref="G8:G9" si="1">(E8-F8)/E8</f>
-        <v>-0.49788359788359787</v>
+        <v>-6.1365733620424481E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25">
-        <v>16</v>
-      </c>
-      <c r="D9" s="12">
-        <v>100000000</v>
-      </c>
-      <c r="E9" s="29">
-        <v>219</v>
-      </c>
-      <c r="F9" s="29">
-        <v>279</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="C9" s="23">
+        <v>256</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1255</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2111</v>
+      </c>
+      <c r="G9" s="11">
         <f t="shared" si="1"/>
-        <v>-0.27397260273972601</v>
+        <v>-0.68207171314741033</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17">
-        <f t="shared" ref="E10:F10" si="2">E8/E9</f>
-        <v>17.260273972602739</v>
-      </c>
-      <c r="F10" s="17">
-        <f t="shared" si="2"/>
-        <v>20.293906810035843</v>
-      </c>
-      <c r="G10" s="18"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15">
+        <f>E8/E9</f>
+        <v>10.361752988047808</v>
+      </c>
+      <c r="F10" s="15">
+        <f>F8/F9</f>
+        <v>6.5381335859782093</v>
+      </c>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="24">
-        <v>16</v>
-      </c>
-      <c r="D11" s="21">
-        <v>100000000</v>
-      </c>
-      <c r="E11" s="28">
-        <v>4067</v>
-      </c>
-      <c r="F11" s="28">
-        <v>5744</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" ref="G11:G12" si="3">(E11-F11)/E11</f>
-        <v>-0.41234325055323334</v>
+      <c r="C11" s="22">
+        <v>256</v>
+      </c>
+      <c r="D11" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="E11" s="25">
+        <v>7929</v>
+      </c>
+      <c r="F11" s="25">
+        <v>8819</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" ref="G11:G12" si="2">(E11-F11)/E11</f>
+        <v>-0.11224618489090679</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
+        <v>256</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1910</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2682</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.40418848167539267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
+        <f>E11/E12</f>
+        <v>4.1513089005235599</v>
+      </c>
+      <c r="F13" s="15">
+        <f>F11/F12</f>
+        <v>3.2882177479492918</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="22">
         <v>16</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D14" s="19">
         <v>100000000</v>
       </c>
-      <c r="E12" s="29">
-        <v>219</v>
-      </c>
-      <c r="F12" s="29">
-        <v>276</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="3"/>
-        <v>-0.26027397260273971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17">
-        <f t="shared" ref="E13:F13" si="4">E11/E12</f>
-        <v>18.570776255707763</v>
-      </c>
-      <c r="F13" s="17">
-        <f t="shared" si="4"/>
-        <v>20.811594202898551</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="24">
-        <v>16</v>
-      </c>
-      <c r="D14" s="21">
-        <v>100000000</v>
-      </c>
-      <c r="E14" s="28">
-        <v>4597</v>
-      </c>
-      <c r="F14" s="28">
-        <v>6779</v>
-      </c>
-      <c r="G14" s="22">
-        <f t="shared" ref="G14:G15" si="5">(E14-F14)/E14</f>
-        <v>-0.47465738525125084</v>
+      <c r="E14" s="25">
+        <v>3780</v>
+      </c>
+      <c r="F14" s="25">
+        <v>5662</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" ref="G14:G15" si="3">(E14-F14)/E14</f>
+        <v>-0.49788359788359787</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <v>16</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="2">
         <v>100000000</v>
       </c>
-      <c r="E15" s="29">
-        <v>250</v>
-      </c>
-      <c r="F15" s="29">
-        <v>333</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="5"/>
-        <v>-0.33200000000000002</v>
+      <c r="E15" s="26">
+        <v>219</v>
+      </c>
+      <c r="F15" s="26">
+        <v>279</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="3"/>
+        <v>-0.27397260273972601</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17">
-        <f t="shared" ref="E16" si="6">E14/E15</f>
-        <v>18.388000000000002</v>
-      </c>
-      <c r="F16" s="17">
-        <f t="shared" ref="F16" si="7">F14/F15</f>
-        <v>20.357357357357358</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:F16" si="4">E14/E15</f>
+        <v>17.260273972602739</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="4"/>
+        <v>20.293906810035843</v>
+      </c>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>16</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>100000000</v>
       </c>
-      <c r="E17" s="28">
-        <v>4908</v>
-      </c>
-      <c r="F17" s="28">
-        <v>6760</v>
-      </c>
-      <c r="G17" s="22">
-        <f t="shared" ref="G17:G18" si="8">(E17-F17)/E17</f>
-        <v>-0.3773431132844336</v>
+      <c r="E17" s="25">
+        <v>4067</v>
+      </c>
+      <c r="F17" s="25">
+        <v>5744</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" ref="G17:G18" si="5">(E17-F17)/E17</f>
+        <v>-0.41234325055323334</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="23">
         <v>16</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="2">
         <v>100000000</v>
       </c>
-      <c r="E18" s="29">
-        <v>250</v>
-      </c>
-      <c r="F18" s="29">
-        <v>342</v>
-      </c>
-      <c r="G18" s="13">
-        <f t="shared" si="8"/>
-        <v>-0.36799999999999999</v>
+      <c r="E18" s="26">
+        <v>219</v>
+      </c>
+      <c r="F18" s="26">
+        <v>276</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="5"/>
+        <v>-0.26027397260273971</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17">
-        <f t="shared" ref="E19" si="9">E17/E18</f>
-        <v>19.632000000000001</v>
-      </c>
-      <c r="F19" s="17">
-        <f t="shared" ref="F19" si="10">F17/F18</f>
-        <v>19.76608187134503</v>
-      </c>
-      <c r="G19" s="18"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15">
+        <f t="shared" ref="E19:F19" si="6">E17/E18</f>
+        <v>18.570776255707763</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="6"/>
+        <v>20.811594202898551</v>
+      </c>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>16</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>100000000</v>
       </c>
-      <c r="E20" s="28">
-        <v>5384</v>
-      </c>
-      <c r="F20" s="28">
-        <v>7792</v>
-      </c>
-      <c r="G20" s="22">
-        <f t="shared" ref="G20:G21" si="11">(E20-F20)/E20</f>
-        <v>-0.4472511144130758</v>
+      <c r="E20" s="25">
+        <v>4597</v>
+      </c>
+      <c r="F20" s="25">
+        <v>6779</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" ref="G20:G21" si="7">(E20-F20)/E20</f>
+        <v>-0.47465738525125084</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="11" t="s">
+      <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <v>16</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="2">
         <v>100000000</v>
       </c>
-      <c r="E21" s="29">
-        <v>281</v>
-      </c>
-      <c r="F21" s="29">
-        <v>439</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="11"/>
-        <v>-0.56227758007117434</v>
+      <c r="E21" s="26">
+        <v>250</v>
+      </c>
+      <c r="F21" s="26">
+        <v>333</v>
+      </c>
+      <c r="G21" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.33200000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17">
-        <f t="shared" ref="E22" si="12">E20/E21</f>
-        <v>19.160142348754448</v>
-      </c>
-      <c r="F22" s="17">
-        <f t="shared" ref="F22" si="13">F20/F21</f>
-        <v>17.749430523917994</v>
-      </c>
-      <c r="G22" s="18"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15">
+        <f t="shared" ref="E22" si="8">E20/E21</f>
+        <v>18.388000000000002</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" ref="F22" si="9">F20/F21</f>
+        <v>20.357357357357358</v>
+      </c>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>16</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>100000000</v>
       </c>
-      <c r="E23" s="28">
-        <v>5774</v>
-      </c>
-      <c r="F23" s="28">
-        <v>7840</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" ref="G23:G24" si="14">(E23-F23)/E23</f>
-        <v>-0.35781087634222375</v>
+      <c r="E23" s="25">
+        <v>4908</v>
+      </c>
+      <c r="F23" s="25">
+        <v>6760</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" ref="G23:G24" si="10">(E23-F23)/E23</f>
+        <v>-0.3773431132844336</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="2">
         <v>100000000</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="26">
+        <v>250</v>
+      </c>
+      <c r="F24" s="26">
+        <v>342</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="10"/>
+        <v>-0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25" si="11">E23/E24</f>
+        <v>19.632000000000001</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" ref="F25" si="12">F23/F24</f>
+        <v>19.76608187134503</v>
+      </c>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="22">
+        <v>16</v>
+      </c>
+      <c r="D26" s="19">
+        <v>100000000</v>
+      </c>
+      <c r="E26" s="25">
+        <v>5384</v>
+      </c>
+      <c r="F26" s="25">
+        <v>7792</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" ref="G26:G27" si="13">(E26-F26)/E26</f>
+        <v>-0.4472511144130758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="23">
+        <v>16</v>
+      </c>
+      <c r="D27" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="E27" s="26">
+        <v>281</v>
+      </c>
+      <c r="F27" s="26">
+        <v>439</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.56227758007117434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15">
+        <f t="shared" ref="E28" si="14">E26/E27</f>
+        <v>19.160142348754448</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" ref="F28" si="15">F26/F27</f>
+        <v>17.749430523917994</v>
+      </c>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="22">
+        <v>16</v>
+      </c>
+      <c r="D29" s="19">
+        <v>100000000</v>
+      </c>
+      <c r="E29" s="25">
+        <v>5774</v>
+      </c>
+      <c r="F29" s="25">
+        <v>7840</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" ref="G29:G30" si="16">(E29-F29)/E29</f>
+        <v>-0.35781087634222375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="23">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="E30" s="26">
         <v>282</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F30" s="26">
         <v>433</v>
       </c>
-      <c r="G24" s="13">
-        <f t="shared" si="14"/>
+      <c r="G30" s="11">
+        <f t="shared" si="16"/>
         <v>-0.53546099290780147</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17">
-        <f t="shared" ref="E25" si="15">E23/E24</f>
+      <c r="C31" s="24"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15">
+        <f t="shared" ref="E31" si="17">E29/E30</f>
         <v>20.475177304964539</v>
       </c>
-      <c r="F25" s="17">
-        <f t="shared" ref="F25" si="16">F23/F24</f>
+      <c r="F31" s="15">
+        <f t="shared" ref="F31" si="18">F29/F30</f>
         <v>18.106235565819862</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G31" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9E9143-56F4-4F21-AC5B-960BB2903D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425BCB20-FC02-435E-88CF-4FE152EFBFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="3780" windowWidth="13125" windowHeight="15435" xr2:uid="{32722BA9-706D-48DB-BC8C-BCA8B7A66EAB}"/>
   </bookViews>
@@ -753,14 +753,14 @@
         <v>10000000</v>
       </c>
       <c r="E8" s="25">
-        <v>13004</v>
+        <v>10728</v>
       </c>
       <c r="F8" s="25">
-        <v>13802</v>
+        <v>14100</v>
       </c>
       <c r="G8" s="20">
         <f t="shared" ref="G8:G9" si="1">(E8-F8)/E8</f>
-        <v>-6.1365733620424481E-2</v>
+        <v>-0.31431767337807609</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -775,14 +775,14 @@
         <v>10000000</v>
       </c>
       <c r="E9" s="26">
-        <v>1255</v>
+        <v>1191</v>
       </c>
       <c r="F9" s="26">
         <v>2111</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="1"/>
-        <v>-0.68207171314741033</v>
+        <v>-0.7724601175482787</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -794,11 +794,11 @@
       <c r="D10" s="14"/>
       <c r="E10" s="15">
         <f>E8/E9</f>
-        <v>10.361752988047808</v>
+        <v>9.0075566750629719</v>
       </c>
       <c r="F10" s="15">
         <f>F8/F9</f>
-        <v>6.5381335859782093</v>
+        <v>6.6792989104689724</v>
       </c>
       <c r="G10" s="16"/>
     </row>
@@ -816,14 +816,14 @@
         <v>10000000</v>
       </c>
       <c r="E11" s="25">
-        <v>7929</v>
+        <v>5539</v>
       </c>
       <c r="F11" s="25">
-        <v>8819</v>
+        <v>9154</v>
       </c>
       <c r="G11" s="20">
         <f t="shared" ref="G11:G12" si="2">(E11-F11)/E11</f>
-        <v>-0.11224618489090679</v>
+        <v>-0.65264488174760782</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,14 +838,14 @@
         <v>10000000</v>
       </c>
       <c r="E12" s="26">
-        <v>1910</v>
+        <v>1849</v>
       </c>
       <c r="F12" s="26">
-        <v>2682</v>
+        <v>2727</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="2"/>
-        <v>-0.40418848167539267</v>
+        <v>-0.4748512709572742</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -857,11 +857,11 @@
       <c r="D13" s="14"/>
       <c r="E13" s="15">
         <f>E11/E12</f>
-        <v>4.1513089005235599</v>
+        <v>2.9956733369388857</v>
       </c>
       <c r="F13" s="15">
         <f>F11/F12</f>
-        <v>3.2882177479492918</v>
+        <v>3.3568023469013566</v>
       </c>
       <c r="G13" s="16"/>
     </row>
